--- a/medicine/Pharmacie/Sartorius_(entreprise)/Sartorius_(entreprise).xlsx
+++ b/medicine/Pharmacie/Sartorius_(entreprise)/Sartorius_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sartorius AG est un fournisseur d’équipements et de services destinés aux processus de développement, d’assurance qualité et de production dans l’industrie biopharmaceutique.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1870 : création de Sartorius (Göttingen, Allemagne)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1870 : création de Sartorius (Göttingen, Allemagne).
 2007 : fusion de la division biotechnologie de Sartorius AG avec le fournisseur biotech français Stedim. La nouvelle société est cotée à la Bourse de Paris.
 octobre 2011 : fermeture de l'établissement (PSE) de Sartorius Mechatronics à Palaiseau, à la suite de la décision du groupe de séparer en deux entités distinctes Industrie et Laboratoire, et le projet de la vente de cette division industrie.
-En octobre 2020, il annonce le rachat de BIA Separations pour 360 millions d'euros. Cette acquisition devrait doter Sartorius « d'une technologie de pointe unique au monde pour la purification et l'analyse de grandes biomolécules, telles que les virus, les plasmides et l'ARN messager »[3],[4].</t>
+En octobre 2020, il annonce le rachat de BIA Separations pour 360 millions d'euros. Cette acquisition devrait doter Sartorius « d'une technologie de pointe unique au monde pour la purification et l'analyse de grandes biomolécules, telles que les virus, les plasmides et l'ARN messager »,.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Informations économiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sartorius Stedim Biotech est cotée à la Bourse de Paris Euronext et a son siège social à Aubagne en France. La société possède des sites de production et de R&amp;D en Europe, en Amérique du Nord et en Asie ainsi que d’un réseau de distribution international. Son principal site de production et de développement se trouve en Allemagne.
 </t>
